--- a/school/storage/import/StudentTestImport.xlsx
+++ b/school/storage/import/StudentTestImport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AAACEBC-E5E5-D248-A79A-3DF41659ADE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABEE432-874D-7145-8C66-A8E549A19565}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4260" yWindow="1920" windowWidth="23000" windowHeight="12860" xr2:uid="{10B921BC-2AF4-6141-AB0B-C0503DF99B73}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Tên</t>
   </si>
@@ -48,16 +48,22 @@
     <t>Mã phụ huynh (nếu có)</t>
   </si>
   <si>
-    <t>Nguyễn Văn A</t>
-  </si>
-  <si>
-    <t>test@test.com</t>
-  </si>
-  <si>
     <t>Giới tính (Nam, Nữ hoặc Khác)</t>
   </si>
   <si>
-    <t>Khác</t>
+    <t>Địa chỉ</t>
+  </si>
+  <si>
+    <t>Sai Gon</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn B</t>
+  </si>
+  <si>
+    <t>test@tlu.com</t>
+  </si>
+  <si>
+    <t>Nam</t>
   </si>
 </sst>
 </file>
@@ -428,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C473A4A8-1FB9-4C4C-BA38-49C2D8A4C311}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -443,7 +449,7 @@
     <col min="8" max="8" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -454,7 +460,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -468,31 +474,37 @@
       <c r="H1" t="s">
         <v>6</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>3378567</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E2" s="3">
-        <v>35085</v>
+        <v>35632</v>
       </c>
       <c r="F2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="D3" s="1"/>
     </row>
   </sheetData>
